--- a/設計書/00_共通設計書/システム全体像.xlsx
+++ b/設計書/00_共通設計書/システム全体像.xlsx
@@ -878,8 +878,8 @@
       <xdr:rowOff>170792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65691</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>144517</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6568</xdr:rowOff>
     </xdr:to>
@@ -891,7 +891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4138448" y="3415861"/>
-          <a:ext cx="1169277" cy="689741"/>
+          <a:ext cx="1799897" cy="689741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,15 +921,30 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>毎日　日本時刻</a:t>
+            <a:t>毎時：</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AM4:00</a:t>
+            <a:t>00</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>にバッチ処理が起動する。</a:t>
+            <a:t>分に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バッチを再起動し、最新の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の情報を取得する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1232,7 +1247,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
